--- a/data/disease_class.xlsx
+++ b/data/disease_class.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/luoni/20220830/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/likangguo/2022/OK 11 COVID_impact_luoli/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DA82427541F7ACA7EB823904F1D026BE8DE14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0CDFE6-409B-4E39-B7AE-7692985DB203}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B480AF32-7956-4A57-9462-81748BD59A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33297836-C838-48B1-8616-78A2DC61A645}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>Blood borne and sexually transmitted diseases</t>
   </si>
@@ -36,93 +39,106 @@
     <t>Gonorrhea</t>
   </si>
   <si>
+    <t>HCV</t>
+  </si>
+  <si>
+    <t>Syphilis</t>
+  </si>
+  <si>
+    <t>Intestinal infectious diseases</t>
+  </si>
+  <si>
+    <t>Acute hemorrhagic conjunctivitis</t>
+  </si>
+  <si>
+    <t>Dysentery</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>HFMD</t>
+  </si>
+  <si>
+    <t>Other infectious diarrhea</t>
+  </si>
+  <si>
+    <t>Typhoid fever and paratyphoid fever</t>
+  </si>
+  <si>
+    <t>Natural focus disease</t>
+  </si>
+  <si>
+    <t>Brucellosis</t>
+  </si>
+  <si>
+    <t>Dengue fever</t>
+  </si>
+  <si>
+    <t>Hydatidosis</t>
+  </si>
+  <si>
+    <t>Japanese encephalitis</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Typhus</t>
+  </si>
+  <si>
+    <t>Respiratory infectious disease</t>
+  </si>
+  <si>
+    <t>Mumps</t>
+  </si>
+  <si>
+    <t>Pertussis</t>
+  </si>
+  <si>
+    <t>Rubella</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diseasename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood borne and sexually transmitted diseases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFRS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>HBV</t>
-  </si>
-  <si>
-    <t>HCV</t>
-  </si>
-  <si>
-    <t>Syphilis</t>
-  </si>
-  <si>
-    <t>Intestinal infectious diseases</t>
-  </si>
-  <si>
-    <t>Acute hemorrhagic conjunctivitis</t>
-  </si>
-  <si>
-    <t>Dysentery</t>
-  </si>
-  <si>
-    <t>HAV</t>
-  </si>
-  <si>
-    <t>HEV</t>
-  </si>
-  <si>
-    <t>HFMD</t>
-  </si>
-  <si>
-    <t>Other infectious diarrhea</t>
-  </si>
-  <si>
-    <t>Typhoid fever and paratyphoid fever</t>
-  </si>
-  <si>
-    <t>Natural focus disease</t>
-  </si>
-  <si>
-    <t>Brucellosis</t>
-  </si>
-  <si>
-    <t>Dengue fever</t>
-  </si>
-  <si>
-    <t>HFRS</t>
-  </si>
-  <si>
-    <t>Hydatidosis</t>
-  </si>
-  <si>
-    <t>Japanese encephalitis</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Typhus</t>
-  </si>
-  <si>
-    <t>Respiratory infectious disease</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Mumps</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>Rubella</t>
-  </si>
-  <si>
-    <t>scarlet fever</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diseasename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood borne and sexually transmitted diseases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scarlet fever</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +164,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -183,10 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -202,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,227 +495,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.4140625" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C25" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+      <sortCondition ref="C1:C25"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/disease_class.xlsx
+++ b/data/disease_class.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/likangguo/2022/OK 11 COVID_impact_luoli/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B480AF32-7956-4A57-9462-81748BD59A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33297836-C838-48B1-8616-78A2DC61A645}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B480AF32-7956-4A57-9462-81748BD59A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F12AD4-5ECC-423D-A39C-42B913067599}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Typhoid fever and paratyphoid fever</t>
   </si>
   <si>
-    <t>Natural focus disease</t>
-  </si>
-  <si>
     <t>Brucellosis</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   <si>
     <t>Scarlet fever</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural focal disease</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,24 +509,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -589,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -603,95 +603,95 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,51 +735,51 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
